--- a/KC-390_DBD_Messages.xlsx
+++ b/KC-390_DBD_Messages.xlsx
@@ -2559,7 +2559,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B974" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M987" sqref="M987"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/KC-390_DBD_Messages.xlsx
+++ b/KC-390_DBD_Messages.xlsx
@@ -776,9 +776,6 @@
     <t>Display_Color</t>
   </si>
   <si>
-    <t>Overall_CHC-D_BIT_Passed</t>
-  </si>
-  <si>
     <t>Overall_CP_BIT_Fail</t>
   </si>
   <si>
@@ -793,27 +790,6 @@
 Maintenance_Interface</t>
   </si>
   <si>
-    <t>CHC-D_Reset_Fault</t>
-  </si>
-  <si>
-    <t>CHC-D_Software_Part
-Number</t>
-  </si>
-  <si>
-    <t>CHC-D_Software_Part_ID</t>
-  </si>
-  <si>
-    <t>CHC-D_Hardware_Part
-Number</t>
-  </si>
-  <si>
-    <t>CHC-D_Hardware_Part_ID</t>
-  </si>
-  <si>
-    <t>Control_Panel_DC_Point-of-
-Load_Power_BIT_Fault</t>
-  </si>
-  <si>
     <t>COM_Fault_–_CHC_Display
 Interface</t>
   </si>
@@ -920,15 +896,6 @@
     <t>CHC_C_Fault</t>
   </si>
   <si>
-    <t>CHC-M_Fault</t>
-  </si>
-  <si>
-    <t>CHC-D_Fault</t>
-  </si>
-  <si>
-    <t>CHC-VP_Fault</t>
-  </si>
-  <si>
     <t>LCP_1_Fault</t>
   </si>
   <si>
@@ -1238,9 +1205,6 @@
     <t>Reset_Jettison</t>
   </si>
   <si>
-    <t>CHC-M_BIT_Included</t>
-  </si>
-  <si>
     <t>Left_Lock_BIT</t>
   </si>
   <si>
@@ -1265,18 +1229,12 @@
     <t>LCU_Solenoid_Serial_Switch_State</t>
   </si>
   <si>
-    <t>CHC-M_BIT_Passed</t>
-  </si>
-  <si>
     <t>AC_Input_Power_BIT_Fault</t>
   </si>
   <si>
     <t>DC_Output_Power_BIT_Fault</t>
   </si>
   <si>
-    <t>DC_Point-of-Load_Power_BIT_Fault</t>
-  </si>
-  <si>
     <t>CHC_Serial_Switch_Status_BIT_Fault</t>
   </si>
   <si>
@@ -1313,9 +1271,6 @@
     <t>Boot_Fault</t>
   </si>
   <si>
-    <t>LCU_DC_Point-of-Load_Power_BIT_Fault</t>
-  </si>
-  <si>
     <t>LCU_Software_Part_Number</t>
   </si>
   <si>
@@ -1349,9 +1304,6 @@
     <t>Actuator_Current_BIT_Fault</t>
   </si>
   <si>
-    <t>LCU_Ultra-Capacitor_BIT_Fault</t>
-  </si>
-  <si>
     <t>CHC_Enable_Switch</t>
   </si>
   <si>
@@ -1679,9 +1631,6 @@
     <t>Capacitor_Charge_State</t>
   </si>
   <si>
-    <t>LCU_Point-of-Load_Power_Fault</t>
-  </si>
-  <si>
     <t>Actuator_Power_Enable_Serial_Switch_Fault</t>
   </si>
   <si>
@@ -1748,12 +1697,6 @@
     <t>Lock_16_State</t>
   </si>
   <si>
-    <t>Lock_#1_Dog_Displacement_Force_Sensor</t>
-  </si>
-  <si>
-    <t>Lock_#2_Dog_Displacement_Force_Sensor</t>
-  </si>
-  <si>
     <t>Subformat_Type</t>
   </si>
   <si>
@@ -2163,6 +2106,63 @@
   </si>
   <si>
     <t>Assume repeated Platform_Count (row 1) is an error</t>
+  </si>
+  <si>
+    <t>LCU_Point_of_Load_Power_Fault</t>
+  </si>
+  <si>
+    <t>Overall_CHC_D_BIT_Passed</t>
+  </si>
+  <si>
+    <t>CHC_D_Reset_Fault</t>
+  </si>
+  <si>
+    <t>CHC_D_Software_Part
+Number</t>
+  </si>
+  <si>
+    <t>CHC_D_Software_Part_ID</t>
+  </si>
+  <si>
+    <t>CHC_D_Hardware_Part
+Number</t>
+  </si>
+  <si>
+    <t>CHC_D_Hardware_Part_ID</t>
+  </si>
+  <si>
+    <t>Control_Panel_DC_Point_of_
+Load_Power_BIT_Fault</t>
+  </si>
+  <si>
+    <t>CHC_M_Fault</t>
+  </si>
+  <si>
+    <t>CHC_D_Fault</t>
+  </si>
+  <si>
+    <t>CHC_VP_Fault</t>
+  </si>
+  <si>
+    <t>CHC_M_BIT_Included</t>
+  </si>
+  <si>
+    <t>CHC_M_BIT_Passed</t>
+  </si>
+  <si>
+    <t>DC_Point_of_Load_Power_BIT_Fault</t>
+  </si>
+  <si>
+    <t>LCU_DC_Point_of_Load_Power_BIT_Fault</t>
+  </si>
+  <si>
+    <t>LCU_Ultra_Capacitor_BIT_Fault</t>
+  </si>
+  <si>
+    <t>Lock_1_Dog_Displacement_Force_Sensor</t>
+  </si>
+  <si>
+    <t>Lock_2_Dog_Displacement_Force_Sensor</t>
   </si>
 </sst>
 </file>
@@ -2556,10 +2556,10 @@
   <dimension ref="A1:Q1231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B974" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1142" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C1154" sqref="C1154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2582,25 +2582,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>224</v>
@@ -2626,10 +2626,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D2" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2663,7 +2663,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2717,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2787,10 +2787,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D13" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -2824,7 +2824,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2878,7 +2878,7 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -2906,7 +2906,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2920,10 +2920,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D22" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2957,7 +2957,7 @@
         <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H24">
         <v>3</v>
@@ -3011,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -3039,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3053,10 +3053,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D31" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -3090,7 +3090,7 @@
         <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -3144,7 +3144,7 @@
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -3244,7 +3244,7 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3258,10 +3258,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D46" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -3295,7 +3295,7 @@
         <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H48">
         <v>10</v>
@@ -3349,7 +3349,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -3531,7 +3531,7 @@
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3545,10 +3545,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D66" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -3582,7 +3582,7 @@
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H68">
         <v>11</v>
@@ -3636,7 +3636,7 @@
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -3846,7 +3846,7 @@
         <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3860,10 +3860,10 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D88" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -3897,7 +3897,7 @@
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H90">
         <v>12</v>
@@ -3951,7 +3951,7 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3993,10 +3993,10 @@
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D97" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -4030,7 +4030,7 @@
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H99">
         <v>13</v>
@@ -4084,7 +4084,7 @@
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I102" t="b">
         <v>1</v>
@@ -4212,7 +4212,7 @@
         <v>5</v>
       </c>
       <c r="F112" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4226,10 +4226,10 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D114" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -4263,7 +4263,7 @@
         <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H116">
         <v>50</v>
@@ -4317,7 +4317,7 @@
         <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I119" t="b">
         <v>1</v>
@@ -4345,7 +4345,7 @@
         <v>5</v>
       </c>
       <c r="F121" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4359,10 +4359,10 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D123" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -4396,7 +4396,7 @@
         <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H125">
         <v>51</v>
@@ -4450,7 +4450,7 @@
         <v>5</v>
       </c>
       <c r="F128" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I128" t="b">
         <v>1</v>
@@ -4500,7 +4500,7 @@
         <v>170</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="E132" s="11">
         <v>6</v>
@@ -4530,7 +4530,7 @@
         <v>5</v>
       </c>
       <c r="F134" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="135" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4547,7 +4547,7 @@
         <v>205</v>
       </c>
       <c r="D136" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D141" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -4640,7 +4640,7 @@
         <v>15</v>
       </c>
       <c r="F143" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H143">
         <v>52</v>
@@ -4694,7 +4694,7 @@
         <v>5</v>
       </c>
       <c r="F146" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I146" t="b">
         <v>1</v>
@@ -4736,7 +4736,7 @@
         <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="150" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4750,10 +4750,10 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D151" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -4787,7 +4787,7 @@
         <v>15</v>
       </c>
       <c r="F153" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H153">
         <v>53</v>
@@ -4841,7 +4841,7 @@
         <v>5</v>
       </c>
       <c r="F156" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I156" t="b">
         <v>1</v>
@@ -4911,7 +4911,7 @@
         <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4925,10 +4925,10 @@
         <v>2</v>
       </c>
       <c r="C163" t="s">
+        <v>575</v>
+      </c>
+      <c r="D163" t="s">
         <v>593</v>
-      </c>
-      <c r="D163" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -4962,7 +4962,7 @@
         <v>15</v>
       </c>
       <c r="F165" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H165">
         <v>54</v>
@@ -5016,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="F168" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I168" t="b">
         <v>1</v>
@@ -5058,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="F171" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5072,10 +5072,10 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D173" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -5109,7 +5109,7 @@
         <v>15</v>
       </c>
       <c r="F175" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H175">
         <v>55</v>
@@ -5163,7 +5163,7 @@
         <v>5</v>
       </c>
       <c r="F178" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I178" t="b">
         <v>1</v>
@@ -5230,7 +5230,7 @@
         <v>170</v>
       </c>
       <c r="D183" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="E183">
         <v>9</v>
@@ -5258,7 +5258,7 @@
         <v>5</v>
       </c>
       <c r="F185" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5275,7 +5275,7 @@
         <v>205</v>
       </c>
       <c r="D187" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
@@ -5356,10 +5356,10 @@
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D194" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -5393,7 +5393,7 @@
         <v>15</v>
       </c>
       <c r="F196" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H196">
         <v>56</v>
@@ -5447,7 +5447,7 @@
         <v>5</v>
       </c>
       <c r="F199" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I199" t="b">
         <v>1</v>
@@ -5547,7 +5547,7 @@
         <v>5</v>
       </c>
       <c r="F207" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="208" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5561,10 +5561,10 @@
         <v>2</v>
       </c>
       <c r="C209" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D209" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -5598,7 +5598,7 @@
         <v>15</v>
       </c>
       <c r="F211" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H211">
         <v>57</v>
@@ -5652,7 +5652,7 @@
         <v>5</v>
       </c>
       <c r="F214" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I214" t="b">
         <v>1</v>
@@ -5694,7 +5694,7 @@
         <v>5</v>
       </c>
       <c r="F217" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5708,10 +5708,10 @@
         <v>2</v>
       </c>
       <c r="C219" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D219" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -5745,7 +5745,7 @@
         <v>15</v>
       </c>
       <c r="F221" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H221">
         <v>58</v>
@@ -5799,7 +5799,7 @@
         <v>5</v>
       </c>
       <c r="F224" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I224" t="b">
         <v>1</v>
@@ -5833,7 +5833,7 @@
         <v>170</v>
       </c>
       <c r="D226" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="E226">
         <v>6</v>
@@ -5861,7 +5861,7 @@
         <v>5</v>
       </c>
       <c r="F228" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="229" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -5878,7 +5878,7 @@
         <v>205</v>
       </c>
       <c r="D230" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.3">
@@ -5997,10 +5997,10 @@
         <v>2</v>
       </c>
       <c r="C239" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D239" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
@@ -6034,7 +6034,7 @@
         <v>15</v>
       </c>
       <c r="F241" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H241">
         <v>59</v>
@@ -6088,7 +6088,7 @@
         <v>5</v>
       </c>
       <c r="F244" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I244" t="b">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>170</v>
       </c>
       <c r="D246" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="E246">
         <v>6</v>
@@ -6150,7 +6150,7 @@
         <v>5</v>
       </c>
       <c r="F248" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="249" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6167,7 +6167,7 @@
         <v>205</v>
       </c>
       <c r="D250" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
@@ -6292,10 +6292,10 @@
         <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D259" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
@@ -6329,7 +6329,7 @@
         <v>15</v>
       </c>
       <c r="F261" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H261">
         <v>60</v>
@@ -6383,7 +6383,7 @@
         <v>5</v>
       </c>
       <c r="F264" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I264" t="b">
         <v>1</v>
@@ -6417,7 +6417,7 @@
         <v>170</v>
       </c>
       <c r="D266" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="E266">
         <v>6</v>
@@ -6445,7 +6445,7 @@
         <v>5</v>
       </c>
       <c r="F268" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="269" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6462,7 +6462,7 @@
         <v>205</v>
       </c>
       <c r="D270" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
@@ -6601,10 +6601,10 @@
         <v>2</v>
       </c>
       <c r="C280" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D280" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -6638,7 +6638,7 @@
         <v>15</v>
       </c>
       <c r="F282" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H282">
         <v>61</v>
@@ -6692,7 +6692,7 @@
         <v>5</v>
       </c>
       <c r="F285" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I285" t="b">
         <v>1</v>
@@ -6889,7 +6889,7 @@
         <v>5</v>
       </c>
       <c r="F296" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="297" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -6903,10 +6903,10 @@
         <v>2</v>
       </c>
       <c r="C298" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D298" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.3">
@@ -6940,7 +6940,7 @@
         <v>15</v>
       </c>
       <c r="F300" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H300">
         <v>62</v>
@@ -6994,7 +6994,7 @@
         <v>5</v>
       </c>
       <c r="F303" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I303" t="b">
         <v>1</v>
@@ -7050,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7064,10 +7064,10 @@
         <v>2</v>
       </c>
       <c r="C309" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D309" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -7101,7 +7101,7 @@
         <v>15</v>
       </c>
       <c r="F311" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H311">
         <v>63</v>
@@ -7155,7 +7155,7 @@
         <v>5</v>
       </c>
       <c r="F314" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I314" t="b">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>5</v>
       </c>
       <c r="F318" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7219,10 +7219,10 @@
         <v>2</v>
       </c>
       <c r="C320" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D320" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -7256,7 +7256,7 @@
         <v>15</v>
       </c>
       <c r="F322" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H322">
         <v>64</v>
@@ -7310,7 +7310,7 @@
         <v>5</v>
       </c>
       <c r="F325" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I325" t="b">
         <v>1</v>
@@ -7349,7 +7349,7 @@
         <v>5</v>
       </c>
       <c r="F328" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="329" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7363,10 +7363,10 @@
         <v>2</v>
       </c>
       <c r="C330" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D330" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
@@ -7400,7 +7400,7 @@
         <v>15</v>
       </c>
       <c r="F332" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H332">
         <v>65</v>
@@ -7454,7 +7454,7 @@
         <v>5</v>
       </c>
       <c r="F335" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I335" t="b">
         <v>1</v>
@@ -7547,7 +7547,7 @@
         <v>5</v>
       </c>
       <c r="F341" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="342" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7561,10 +7561,10 @@
         <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D343" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
@@ -7598,7 +7598,7 @@
         <v>15</v>
       </c>
       <c r="F345" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H345">
         <v>66</v>
@@ -7652,7 +7652,7 @@
         <v>5</v>
       </c>
       <c r="F348" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I348" t="b">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="F354" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="355" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7759,10 +7759,10 @@
         <v>2</v>
       </c>
       <c r="C356" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D356" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -7796,7 +7796,7 @@
         <v>15</v>
       </c>
       <c r="F358" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H358">
         <v>67</v>
@@ -7850,7 +7850,7 @@
         <v>5</v>
       </c>
       <c r="F361" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I361" t="b">
         <v>1</v>
@@ -7906,7 +7906,7 @@
         <v>5</v>
       </c>
       <c r="F365" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="366" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7920,10 +7920,10 @@
         <v>2</v>
       </c>
       <c r="C367" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D367" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -7957,7 +7957,7 @@
         <v>15</v>
       </c>
       <c r="F369" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H369">
         <v>68</v>
@@ -8011,7 +8011,7 @@
         <v>5</v>
       </c>
       <c r="F372" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I372" t="b">
         <v>1</v>
@@ -8053,7 +8053,7 @@
         <v>5</v>
       </c>
       <c r="F375" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="376" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8067,10 +8067,10 @@
         <v>2</v>
       </c>
       <c r="C377" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D377" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
@@ -8104,7 +8104,7 @@
         <v>15</v>
       </c>
       <c r="F379" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H379">
         <v>69</v>
@@ -8158,7 +8158,7 @@
         <v>5</v>
       </c>
       <c r="F382" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I382" t="b">
         <v>1</v>
@@ -8203,7 +8203,7 @@
         <v>5</v>
       </c>
       <c r="F385" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="386" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8217,10 +8217,10 @@
         <v>2</v>
       </c>
       <c r="C387" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D387" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
@@ -8254,7 +8254,7 @@
         <v>15</v>
       </c>
       <c r="F389" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H389">
         <v>70</v>
@@ -8308,7 +8308,7 @@
         <v>5</v>
       </c>
       <c r="F392" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I392" t="b">
         <v>1</v>
@@ -8342,7 +8342,7 @@
         <v>170</v>
       </c>
       <c r="D394" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="E394">
         <v>6</v>
@@ -8370,7 +8370,7 @@
         <v>5</v>
       </c>
       <c r="F396" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="397" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8387,7 +8387,7 @@
         <v>205</v>
       </c>
       <c r="D398" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.3">
@@ -8426,10 +8426,10 @@
         <v>2</v>
       </c>
       <c r="C402" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D402" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.3">
@@ -8463,7 +8463,7 @@
         <v>15</v>
       </c>
       <c r="F404" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H404">
         <v>71</v>
@@ -8517,7 +8517,7 @@
         <v>5</v>
       </c>
       <c r="F407" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I407" t="b">
         <v>1</v>
@@ -8551,7 +8551,7 @@
         <v>170</v>
       </c>
       <c r="D409" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="E409">
         <v>6</v>
@@ -8579,7 +8579,7 @@
         <v>5</v>
       </c>
       <c r="F411" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="412" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8596,7 +8596,7 @@
         <v>205</v>
       </c>
       <c r="D413" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.3">
@@ -8635,10 +8635,10 @@
         <v>2</v>
       </c>
       <c r="C417" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D417" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
@@ -8672,7 +8672,7 @@
         <v>15</v>
       </c>
       <c r="F419" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H419">
         <v>72</v>
@@ -8726,7 +8726,7 @@
         <v>5</v>
       </c>
       <c r="F422" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I422" t="b">
         <v>1</v>
@@ -8838,7 +8838,7 @@
         <v>5</v>
       </c>
       <c r="F430" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="431" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -8852,10 +8852,10 @@
         <v>2</v>
       </c>
       <c r="C432" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D432" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -8889,7 +8889,7 @@
         <v>15</v>
       </c>
       <c r="F434" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H434">
         <v>73</v>
@@ -8943,7 +8943,7 @@
         <v>5</v>
       </c>
       <c r="F437" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I437" t="b">
         <v>1</v>
@@ -8996,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="F441" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="442" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9010,10 +9010,10 @@
         <v>2</v>
       </c>
       <c r="C443" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D443" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
@@ -9047,7 +9047,7 @@
         <v>15</v>
       </c>
       <c r="F445" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H445">
         <v>78</v>
@@ -9101,7 +9101,7 @@
         <v>5</v>
       </c>
       <c r="F448" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I448" t="b">
         <v>1</v>
@@ -9199,7 +9199,7 @@
         <v>5</v>
       </c>
       <c r="F455" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="456" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9213,10 +9213,10 @@
         <v>2</v>
       </c>
       <c r="C457" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D457" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -9250,7 +9250,7 @@
         <v>15</v>
       </c>
       <c r="F459" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H459">
         <v>79</v>
@@ -9304,7 +9304,7 @@
         <v>5</v>
       </c>
       <c r="F462" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I462" t="b">
         <v>1</v>
@@ -9388,7 +9388,7 @@
         <v>5</v>
       </c>
       <c r="F468" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="469" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9402,10 +9402,10 @@
         <v>2</v>
       </c>
       <c r="C470" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D470" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -9439,7 +9439,7 @@
         <v>15</v>
       </c>
       <c r="F472" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H472">
         <v>80</v>
@@ -9493,7 +9493,7 @@
         <v>5</v>
       </c>
       <c r="F475" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I475" t="b">
         <v>1</v>
@@ -9504,7 +9504,7 @@
         <v>6</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>252</v>
+        <v>696</v>
       </c>
       <c r="C476" t="s">
         <v>3</v>
@@ -9518,7 +9518,7 @@
         <v>7</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -9529,7 +9529,7 @@
         <v>8</v>
       </c>
       <c r="B478" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C478" t="s">
         <v>3</v>
@@ -9543,7 +9543,7 @@
         <v>9</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C479" t="s">
         <v>3</v>
@@ -9557,7 +9557,7 @@
         <v>10</v>
       </c>
       <c r="B480" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C480" t="s">
         <v>3</v>
@@ -9571,7 +9571,7 @@
         <v>11</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>257</v>
+        <v>697</v>
       </c>
       <c r="C481" t="s">
         <v>3</v>
@@ -9585,7 +9585,7 @@
         <v>12</v>
       </c>
       <c r="B482" s="15" t="s">
-        <v>258</v>
+        <v>698</v>
       </c>
       <c r="C482" t="s">
         <v>26</v>
@@ -9596,7 +9596,7 @@
         <v>13</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>259</v>
+        <v>699</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -9607,7 +9607,7 @@
         <v>14</v>
       </c>
       <c r="B484" s="15" t="s">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="C484" t="s">
         <v>26</v>
@@ -9618,7 +9618,7 @@
         <v>15</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>261</v>
+        <v>701</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -9629,7 +9629,7 @@
         <v>16</v>
       </c>
       <c r="B486" s="15" t="s">
-        <v>262</v>
+        <v>702</v>
       </c>
       <c r="C486" t="s">
         <v>3</v>
@@ -9643,7 +9643,7 @@
         <v>17</v>
       </c>
       <c r="B487" s="15" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C487" t="s">
         <v>3</v>
@@ -9657,7 +9657,7 @@
         <v>18</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C488" t="s">
         <v>3</v>
@@ -9671,7 +9671,7 @@
         <v>19</v>
       </c>
       <c r="B489" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C489" t="s">
         <v>3</v>
@@ -9685,7 +9685,7 @@
         <v>20</v>
       </c>
       <c r="B490" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C490" t="s">
         <v>26</v>
@@ -9696,7 +9696,7 @@
         <v>21</v>
       </c>
       <c r="B491" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -9707,7 +9707,7 @@
         <v>22</v>
       </c>
       <c r="B492" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C492" t="s">
         <v>26</v>
@@ -9718,7 +9718,7 @@
         <v>23</v>
       </c>
       <c r="B493" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -9746,7 +9746,7 @@
         <v>5</v>
       </c>
       <c r="F495" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="496" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9760,10 +9760,10 @@
         <v>2</v>
       </c>
       <c r="C497" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D497" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.3">
@@ -9797,7 +9797,7 @@
         <v>15</v>
       </c>
       <c r="F499" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H499">
         <v>81</v>
@@ -9851,7 +9851,7 @@
         <v>5</v>
       </c>
       <c r="F502" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I502" t="b">
         <v>1</v>
@@ -9862,7 +9862,7 @@
         <v>6</v>
       </c>
       <c r="B503" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C503" t="s">
         <v>3</v>
@@ -9876,7 +9876,7 @@
         <v>7</v>
       </c>
       <c r="B504" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C504" t="s">
         <v>3</v>
@@ -9890,7 +9890,7 @@
         <v>8</v>
       </c>
       <c r="B505" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C505" t="s">
         <v>3</v>
@@ -9904,7 +9904,7 @@
         <v>9</v>
       </c>
       <c r="B506" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -9918,7 +9918,7 @@
         <v>10</v>
       </c>
       <c r="B507" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -9943,7 +9943,7 @@
         <v>12</v>
       </c>
       <c r="B509" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C509" t="s">
         <v>3</v>
@@ -9974,7 +9974,7 @@
         <v>5</v>
       </c>
       <c r="F511" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="512" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9988,10 +9988,10 @@
         <v>2</v>
       </c>
       <c r="C513" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D513" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.3">
@@ -10025,7 +10025,7 @@
         <v>15</v>
       </c>
       <c r="F515" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H515">
         <v>82</v>
@@ -10079,7 +10079,7 @@
         <v>5</v>
       </c>
       <c r="F518" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I518" t="b">
         <v>1</v>
@@ -10651,7 +10651,7 @@
         <v>5</v>
       </c>
       <c r="F552" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="553" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10665,10 +10665,10 @@
         <v>2</v>
       </c>
       <c r="C554" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D554" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.3">
@@ -10702,7 +10702,7 @@
         <v>15</v>
       </c>
       <c r="F556" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H556">
         <v>83</v>
@@ -10756,7 +10756,7 @@
         <v>5</v>
       </c>
       <c r="F559" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I559" t="b">
         <v>1</v>
@@ -10767,7 +10767,7 @@
         <v>6</v>
       </c>
       <c r="B560" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C560" t="s">
         <v>3</v>
@@ -10781,7 +10781,7 @@
         <v>7</v>
       </c>
       <c r="B561" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C561" t="s">
         <v>3</v>
@@ -10795,7 +10795,7 @@
         <v>8</v>
       </c>
       <c r="B562" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C562" t="s">
         <v>3</v>
@@ -10809,7 +10809,7 @@
         <v>9</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C563" t="s">
         <v>3</v>
@@ -10823,7 +10823,7 @@
         <v>10</v>
       </c>
       <c r="B564" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C564" t="s">
         <v>3</v>
@@ -10837,7 +10837,7 @@
         <v>11</v>
       </c>
       <c r="B565" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C565" t="s">
         <v>3</v>
@@ -10851,7 +10851,7 @@
         <v>12</v>
       </c>
       <c r="B566" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C566" t="s">
         <v>3</v>
@@ -10865,7 +10865,7 @@
         <v>13</v>
       </c>
       <c r="B567" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C567" t="s">
         <v>3</v>
@@ -10879,7 +10879,7 @@
         <v>14</v>
       </c>
       <c r="B568" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C568" t="s">
         <v>3</v>
@@ -10893,7 +10893,7 @@
         <v>15</v>
       </c>
       <c r="B569" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C569" t="s">
         <v>3</v>
@@ -10907,7 +10907,7 @@
         <v>16</v>
       </c>
       <c r="B570" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C570" t="s">
         <v>3</v>
@@ -10921,7 +10921,7 @@
         <v>17</v>
       </c>
       <c r="B571" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C571" t="s">
         <v>3</v>
@@ -10935,7 +10935,7 @@
         <v>18</v>
       </c>
       <c r="B572" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C572" t="s">
         <v>3</v>
@@ -10949,7 +10949,7 @@
         <v>19</v>
       </c>
       <c r="B573" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C573" t="s">
         <v>3</v>
@@ -10963,7 +10963,7 @@
         <v>20</v>
       </c>
       <c r="B574" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C574" t="s">
         <v>3</v>
@@ -10977,7 +10977,7 @@
         <v>21</v>
       </c>
       <c r="B575" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C575" t="s">
         <v>3</v>
@@ -10991,7 +10991,7 @@
         <v>22</v>
       </c>
       <c r="B576" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C576" t="s">
         <v>3</v>
@@ -11005,7 +11005,7 @@
         <v>23</v>
       </c>
       <c r="B577" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C577" t="s">
         <v>3</v>
@@ -11019,7 +11019,7 @@
         <v>24</v>
       </c>
       <c r="B578" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C578" t="s">
         <v>3</v>
@@ -11033,7 +11033,7 @@
         <v>25</v>
       </c>
       <c r="B579" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C579" t="s">
         <v>3</v>
@@ -11047,7 +11047,7 @@
         <v>26</v>
       </c>
       <c r="B580" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C580" t="s">
         <v>3</v>
@@ -11078,7 +11078,7 @@
         <v>5</v>
       </c>
       <c r="F582" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="583" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11092,10 +11092,10 @@
         <v>2</v>
       </c>
       <c r="C584" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D584" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.3">
@@ -11129,7 +11129,7 @@
         <v>15</v>
       </c>
       <c r="F586" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H586">
         <v>84</v>
@@ -11183,7 +11183,7 @@
         <v>5</v>
       </c>
       <c r="F589" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I589" t="b">
         <v>1</v>
@@ -11194,7 +11194,7 @@
         <v>6</v>
       </c>
       <c r="B590" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C590" t="s">
         <v>3</v>
@@ -11208,7 +11208,7 @@
         <v>7</v>
       </c>
       <c r="B591" s="7" t="s">
-        <v>298</v>
+        <v>703</v>
       </c>
       <c r="C591" t="s">
         <v>3</v>
@@ -11222,7 +11222,7 @@
         <v>8</v>
       </c>
       <c r="B592" s="7" t="s">
-        <v>299</v>
+        <v>704</v>
       </c>
       <c r="C592" t="s">
         <v>3</v>
@@ -11236,7 +11236,7 @@
         <v>9</v>
       </c>
       <c r="B593" s="7" t="s">
-        <v>300</v>
+        <v>705</v>
       </c>
       <c r="C593" t="s">
         <v>3</v>
@@ -11250,7 +11250,7 @@
         <v>10</v>
       </c>
       <c r="B594" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C594" t="s">
         <v>3</v>
@@ -11264,7 +11264,7 @@
         <v>11</v>
       </c>
       <c r="B595" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C595" t="s">
         <v>3</v>
@@ -11278,7 +11278,7 @@
         <v>12</v>
       </c>
       <c r="B596" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C596" t="s">
         <v>3</v>
@@ -11292,7 +11292,7 @@
         <v>13</v>
       </c>
       <c r="B597" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C597" t="s">
         <v>3</v>
@@ -11306,7 +11306,7 @@
         <v>14</v>
       </c>
       <c r="B598" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C598" t="s">
         <v>3</v>
@@ -11320,7 +11320,7 @@
         <v>15</v>
       </c>
       <c r="B599" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C599" t="s">
         <v>3</v>
@@ -11334,7 +11334,7 @@
         <v>16</v>
       </c>
       <c r="B600" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C600" t="s">
         <v>3</v>
@@ -11348,7 +11348,7 @@
         <v>17</v>
       </c>
       <c r="B601" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -11362,7 +11362,7 @@
         <v>18</v>
       </c>
       <c r="B602" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -11376,7 +11376,7 @@
         <v>19</v>
       </c>
       <c r="B603" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -11390,7 +11390,7 @@
         <v>20</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -11404,7 +11404,7 @@
         <v>21</v>
       </c>
       <c r="B605" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -11418,7 +11418,7 @@
         <v>22</v>
       </c>
       <c r="B606" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -11432,7 +11432,7 @@
         <v>23</v>
       </c>
       <c r="B607" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -11446,7 +11446,7 @@
         <v>24</v>
       </c>
       <c r="B608" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -11460,7 +11460,7 @@
         <v>25</v>
       </c>
       <c r="B609" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -11474,7 +11474,7 @@
         <v>26</v>
       </c>
       <c r="B610" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -11488,7 +11488,7 @@
         <v>27</v>
       </c>
       <c r="B611" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -11502,7 +11502,7 @@
         <v>28</v>
       </c>
       <c r="B612" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -11516,7 +11516,7 @@
         <v>29</v>
       </c>
       <c r="B613" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -11530,7 +11530,7 @@
         <v>30</v>
       </c>
       <c r="B614" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -11544,7 +11544,7 @@
         <v>31</v>
       </c>
       <c r="B615" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -11558,7 +11558,7 @@
         <v>32</v>
       </c>
       <c r="B616" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -11589,7 +11589,7 @@
         <v>5</v>
       </c>
       <c r="F618" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="619" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11603,10 +11603,10 @@
         <v>2</v>
       </c>
       <c r="C620" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D620" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.3">
@@ -11640,7 +11640,7 @@
         <v>15</v>
       </c>
       <c r="F622" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H622">
         <v>85</v>
@@ -11694,7 +11694,7 @@
         <v>5</v>
       </c>
       <c r="F625" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I625" t="b">
         <v>1</v>
@@ -11705,7 +11705,7 @@
         <v>6</v>
       </c>
       <c r="B626" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -11719,7 +11719,7 @@
         <v>7</v>
       </c>
       <c r="B627" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C627" t="s">
         <v>3</v>
@@ -11733,7 +11733,7 @@
         <v>8</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C628" t="s">
         <v>3</v>
@@ -11747,7 +11747,7 @@
         <v>9</v>
       </c>
       <c r="B629" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C629" t="s">
         <v>3</v>
@@ -11775,7 +11775,7 @@
         <v>11</v>
       </c>
       <c r="B631" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C631" t="s">
         <v>3</v>
@@ -11789,7 +11789,7 @@
         <v>12</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C632" t="s">
         <v>3</v>
@@ -11803,7 +11803,7 @@
         <v>13</v>
       </c>
       <c r="B633" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C633" t="s">
         <v>3</v>
@@ -11817,7 +11817,7 @@
         <v>14</v>
       </c>
       <c r="B634" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C634" t="s">
         <v>3</v>
@@ -11831,7 +11831,7 @@
         <v>15</v>
       </c>
       <c r="B635" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C635" t="s">
         <v>3</v>
@@ -11845,7 +11845,7 @@
         <v>16</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C636" t="s">
         <v>3</v>
@@ -11859,7 +11859,7 @@
         <v>17</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C637" t="s">
         <v>3</v>
@@ -11873,7 +11873,7 @@
         <v>18</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C638" t="s">
         <v>3</v>
@@ -11887,7 +11887,7 @@
         <v>19</v>
       </c>
       <c r="B639" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C639" t="s">
         <v>3</v>
@@ -11901,7 +11901,7 @@
         <v>20</v>
       </c>
       <c r="B640" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C640" t="s">
         <v>3</v>
@@ -11915,7 +11915,7 @@
         <v>21</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C641" t="s">
         <v>3</v>
@@ -11929,7 +11929,7 @@
         <v>22</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C642" t="s">
         <v>3</v>
@@ -11943,7 +11943,7 @@
         <v>23</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C643" t="s">
         <v>3</v>
@@ -11957,7 +11957,7 @@
         <v>24</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C644" t="s">
         <v>3</v>
@@ -11971,7 +11971,7 @@
         <v>25</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C645" t="s">
         <v>3</v>
@@ -11985,7 +11985,7 @@
         <v>26</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C646" t="s">
         <v>3</v>
@@ -11999,7 +11999,7 @@
         <v>27</v>
       </c>
       <c r="B647" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C647" t="s">
         <v>3</v>
@@ -12013,7 +12013,7 @@
         <v>28</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C648" t="s">
         <v>3</v>
@@ -12027,7 +12027,7 @@
         <v>29</v>
       </c>
       <c r="B649" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C649" t="s">
         <v>3</v>
@@ -12041,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="B650" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C650" t="s">
         <v>3</v>
@@ -12055,7 +12055,7 @@
         <v>31</v>
       </c>
       <c r="B651" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C651" t="s">
         <v>3</v>
@@ -12069,7 +12069,7 @@
         <v>32</v>
       </c>
       <c r="B652" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C652" t="s">
         <v>3</v>
@@ -12083,7 +12083,7 @@
         <v>33</v>
       </c>
       <c r="B653" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C653" t="s">
         <v>3</v>
@@ -12097,7 +12097,7 @@
         <v>34</v>
       </c>
       <c r="B654" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C654" t="s">
         <v>3</v>
@@ -12111,7 +12111,7 @@
         <v>35</v>
       </c>
       <c r="B655" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C655" t="s">
         <v>3</v>
@@ -12125,7 +12125,7 @@
         <v>36</v>
       </c>
       <c r="B656" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C656" t="s">
         <v>3</v>
@@ -12139,7 +12139,7 @@
         <v>37</v>
       </c>
       <c r="B657" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C657" t="s">
         <v>3</v>
@@ -12153,7 +12153,7 @@
         <v>38</v>
       </c>
       <c r="B658" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C658" t="s">
         <v>3</v>
@@ -12167,7 +12167,7 @@
         <v>39</v>
       </c>
       <c r="B659" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C659" t="s">
         <v>3</v>
@@ -12181,7 +12181,7 @@
         <v>40</v>
       </c>
       <c r="B660" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C660" t="s">
         <v>3</v>
@@ -12212,7 +12212,7 @@
         <v>5</v>
       </c>
       <c r="F662" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="663" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12226,10 +12226,10 @@
         <v>2</v>
       </c>
       <c r="C664" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D664" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.3">
@@ -12263,7 +12263,7 @@
         <v>15</v>
       </c>
       <c r="F666" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H666">
         <v>86</v>
@@ -12317,7 +12317,7 @@
         <v>5</v>
       </c>
       <c r="F669" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I669" t="b">
         <v>1</v>
@@ -12328,7 +12328,7 @@
         <v>6</v>
       </c>
       <c r="B670" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -12345,13 +12345,13 @@
         <v>7</v>
       </c>
       <c r="B671" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C671" t="s">
         <v>170</v>
       </c>
       <c r="D671" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="E671">
         <v>6</v>
@@ -12379,7 +12379,7 @@
         <v>5</v>
       </c>
       <c r="F673" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="674" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12396,7 +12396,7 @@
         <v>205</v>
       </c>
       <c r="D675" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
     </row>
     <row r="676" spans="1:13" x14ac:dyDescent="0.3">
@@ -12404,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="B676" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C676" t="s">
         <v>5</v>
@@ -12418,10 +12418,10 @@
         <v>2</v>
       </c>
       <c r="B677" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C677" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
     </row>
     <row r="678" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12438,7 +12438,7 @@
         <v>205</v>
       </c>
       <c r="D679" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
     </row>
     <row r="680" spans="1:13" x14ac:dyDescent="0.3">
@@ -12471,13 +12471,13 @@
         <v>3</v>
       </c>
       <c r="B682" s="7" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="C682" t="s">
         <v>170</v>
       </c>
       <c r="D682" s="13" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
     </row>
     <row r="683" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -12494,10 +12494,10 @@
         <v>205</v>
       </c>
       <c r="D684" s="14" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="M684" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.3">
@@ -12505,7 +12505,7 @@
         <v>1</v>
       </c>
       <c r="B685" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C685" t="s">
         <v>5</v>
@@ -12519,7 +12519,7 @@
         <v>2</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C686" t="s">
         <v>5</v>
@@ -12533,7 +12533,7 @@
         <v>3</v>
       </c>
       <c r="B687" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C687" t="s">
         <v>3</v>
@@ -12547,7 +12547,7 @@
         <v>4</v>
       </c>
       <c r="B688" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -12558,7 +12558,7 @@
         <v>5</v>
       </c>
       <c r="B689" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C689" t="s">
         <v>5</v>
@@ -12572,7 +12572,7 @@
         <v>6</v>
       </c>
       <c r="B690" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C690" t="s">
         <v>5</v>
@@ -12583,7 +12583,7 @@
         <v>7</v>
       </c>
       <c r="B691" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -12597,7 +12597,7 @@
         <v>8</v>
       </c>
       <c r="B692" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C692" t="s">
         <v>5</v>
@@ -12608,7 +12608,7 @@
         <v>9</v>
       </c>
       <c r="B693" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C693" t="s">
         <v>5</v>
@@ -12622,7 +12622,7 @@
         <v>10</v>
       </c>
       <c r="B694" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C694" t="s">
         <v>5</v>
@@ -12633,7 +12633,7 @@
         <v>11</v>
       </c>
       <c r="B695" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C695" t="s">
         <v>5</v>
@@ -12656,10 +12656,10 @@
         <v>205</v>
       </c>
       <c r="D697" s="14" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="M697" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
     </row>
     <row r="698" spans="1:13" x14ac:dyDescent="0.3">
@@ -12667,7 +12667,7 @@
         <v>1</v>
       </c>
       <c r="B698" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C698" t="s">
         <v>5</v>
@@ -12681,7 +12681,7 @@
         <v>2</v>
       </c>
       <c r="B699" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C699" t="s">
         <v>5</v>
@@ -12695,7 +12695,7 @@
         <v>3</v>
       </c>
       <c r="B700" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C700" t="s">
         <v>5</v>
@@ -12715,10 +12715,10 @@
         <v>205</v>
       </c>
       <c r="D702" s="14" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="M702" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
     </row>
     <row r="703" spans="1:13" x14ac:dyDescent="0.3">
@@ -12726,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="B703" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C703" t="s">
         <v>5</v>
@@ -12740,7 +12740,7 @@
         <v>2</v>
       </c>
       <c r="B704" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C704" t="s">
         <v>5</v>
@@ -12754,7 +12754,7 @@
         <v>3</v>
       </c>
       <c r="B705" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C705" t="s">
         <v>5</v>
@@ -12768,7 +12768,7 @@
         <v>4</v>
       </c>
       <c r="B706" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C706" t="s">
         <v>5</v>
@@ -12779,7 +12779,7 @@
         <v>5</v>
       </c>
       <c r="B707" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C707" t="s">
         <v>5</v>
@@ -12802,10 +12802,10 @@
         <v>205</v>
       </c>
       <c r="D709" s="14" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="M709" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
     </row>
     <row r="710" spans="1:13" x14ac:dyDescent="0.3">
@@ -12813,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C710" t="s">
         <v>5</v>
@@ -12824,7 +12824,7 @@
         <v>2</v>
       </c>
       <c r="B711" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C711" t="s">
         <v>5</v>
@@ -12844,10 +12844,10 @@
         <v>2</v>
       </c>
       <c r="C713" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D713" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
     </row>
     <row r="714" spans="1:13" x14ac:dyDescent="0.3">
@@ -12881,7 +12881,7 @@
         <v>15</v>
       </c>
       <c r="F715" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H715">
         <v>87</v>
@@ -12935,7 +12935,7 @@
         <v>5</v>
       </c>
       <c r="F718" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I718" t="b">
         <v>1</v>
@@ -12946,7 +12946,7 @@
         <v>6</v>
       </c>
       <c r="B719" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C719" t="s">
         <v>5</v>
@@ -12966,7 +12966,7 @@
         <v>7</v>
       </c>
       <c r="B720" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C720" t="s">
         <v>5</v>
@@ -12977,7 +12977,7 @@
         <v>8</v>
       </c>
       <c r="B721" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C721" t="s">
         <v>5</v>
@@ -12988,7 +12988,7 @@
         <v>9</v>
       </c>
       <c r="B722" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C722" t="s">
         <v>5</v>
@@ -12999,7 +12999,7 @@
         <v>10</v>
       </c>
       <c r="B723" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C723" t="s">
         <v>3</v>
@@ -13013,7 +13013,7 @@
         <v>11</v>
       </c>
       <c r="B724" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C724" t="s">
         <v>5</v>
@@ -13037,7 +13037,7 @@
         <v>170</v>
       </c>
       <c r="D725" s="10" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="E725">
         <v>7</v>
@@ -13054,7 +13054,7 @@
         <v>170</v>
       </c>
       <c r="D726" s="10" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="E726">
         <v>9</v>
@@ -13071,7 +13071,7 @@
         <v>170</v>
       </c>
       <c r="D727" s="10" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E727">
         <v>8</v>
@@ -13099,7 +13099,7 @@
         <v>5</v>
       </c>
       <c r="F729" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="730" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13116,7 +13116,7 @@
         <v>205</v>
       </c>
       <c r="D731" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.3">
@@ -13152,7 +13152,7 @@
         <v>3</v>
       </c>
       <c r="B734" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C734" t="s">
         <v>5</v>
@@ -13237,7 +13237,7 @@
         <v>205</v>
       </c>
       <c r="D740" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
     </row>
     <row r="741" spans="1:13" x14ac:dyDescent="0.3">
@@ -13346,7 +13346,7 @@
         <v>8</v>
       </c>
       <c r="B748" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C748" t="s">
         <v>5</v>
@@ -13360,7 +13360,7 @@
         <v>9</v>
       </c>
       <c r="B749" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C749" t="s">
         <v>5</v>
@@ -13386,7 +13386,7 @@
         <v>205</v>
       </c>
       <c r="D751" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
     </row>
     <row r="752" spans="1:13" x14ac:dyDescent="0.3">
@@ -13507,10 +13507,10 @@
         <v>2</v>
       </c>
       <c r="C760" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D760" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.3">
@@ -13544,7 +13544,7 @@
         <v>15</v>
       </c>
       <c r="F762" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H762">
         <v>88</v>
@@ -13598,7 +13598,7 @@
         <v>5</v>
       </c>
       <c r="F765" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I765" t="b">
         <v>1</v>
@@ -13609,7 +13609,7 @@
         <v>6</v>
       </c>
       <c r="B766" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C766" t="s">
         <v>5</v>
@@ -13626,7 +13626,7 @@
         <v>7</v>
       </c>
       <c r="B767" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C767" t="s">
         <v>5</v>
@@ -13643,7 +13643,7 @@
         <v>8</v>
       </c>
       <c r="B768" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C768" t="s">
         <v>5</v>
@@ -13660,13 +13660,13 @@
         <v>9</v>
       </c>
       <c r="B769" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C769" t="s">
         <v>170</v>
       </c>
       <c r="D769" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="E769">
         <v>7</v>
@@ -13694,7 +13694,7 @@
         <v>5</v>
       </c>
       <c r="F771" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="772" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13711,7 +13711,7 @@
         <v>205</v>
       </c>
       <c r="D773" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
     </row>
     <row r="774" spans="1:9" x14ac:dyDescent="0.3">
@@ -13719,7 +13719,7 @@
         <v>1</v>
       </c>
       <c r="B774" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C774" t="s">
         <v>5</v>
@@ -13733,7 +13733,7 @@
         <v>2</v>
       </c>
       <c r="B775" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C775" t="s">
         <v>5</v>
@@ -13753,10 +13753,10 @@
         <v>2</v>
       </c>
       <c r="C777" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D777" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
     </row>
     <row r="778" spans="1:9" x14ac:dyDescent="0.3">
@@ -13790,7 +13790,7 @@
         <v>15</v>
       </c>
       <c r="F779" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H779">
         <v>100</v>
@@ -13844,7 +13844,7 @@
         <v>5</v>
       </c>
       <c r="F782" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I782" t="b">
         <v>1</v>
@@ -13855,7 +13855,7 @@
         <v>6</v>
       </c>
       <c r="B783" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C783" t="s">
         <v>5</v>
@@ -13866,7 +13866,7 @@
         <v>7</v>
       </c>
       <c r="B784" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C784" t="s">
         <v>5</v>
@@ -13880,7 +13880,7 @@
         <v>8</v>
       </c>
       <c r="B785" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C785" t="s">
         <v>5</v>
@@ -13911,7 +13911,7 @@
         <v>5</v>
       </c>
       <c r="F787" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="788" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -13925,10 +13925,10 @@
         <v>2</v>
       </c>
       <c r="C789" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D789" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
     </row>
     <row r="790" spans="1:9" x14ac:dyDescent="0.3">
@@ -13962,7 +13962,7 @@
         <v>15</v>
       </c>
       <c r="F791" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H791">
         <v>101</v>
@@ -14016,7 +14016,7 @@
         <v>5</v>
       </c>
       <c r="F794" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I794" t="b">
         <v>1</v>
@@ -14058,7 +14058,7 @@
         <v>5</v>
       </c>
       <c r="F797" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="798" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14072,10 +14072,10 @@
         <v>2</v>
       </c>
       <c r="C799" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D799" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
     </row>
     <row r="800" spans="1:9" x14ac:dyDescent="0.3">
@@ -14109,7 +14109,7 @@
         <v>15</v>
       </c>
       <c r="F801" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H801">
         <v>102</v>
@@ -14163,7 +14163,7 @@
         <v>5</v>
       </c>
       <c r="F804" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I804" t="b">
         <v>1</v>
@@ -14174,7 +14174,7 @@
         <v>6</v>
       </c>
       <c r="B805" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C805" t="s">
         <v>3</v>
@@ -14188,7 +14188,7 @@
         <v>7</v>
       </c>
       <c r="B806" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C806" t="s">
         <v>3</v>
@@ -14216,7 +14216,7 @@
         <v>9</v>
       </c>
       <c r="B808" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C808" t="s">
         <v>3</v>
@@ -14247,7 +14247,7 @@
         <v>5</v>
       </c>
       <c r="F810" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="811" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14261,10 +14261,10 @@
         <v>2</v>
       </c>
       <c r="C812" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D812" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.3">
@@ -14298,7 +14298,7 @@
         <v>15</v>
       </c>
       <c r="F814" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H814">
         <v>103</v>
@@ -14352,7 +14352,7 @@
         <v>5</v>
       </c>
       <c r="F817" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I817" t="b">
         <v>1</v>
@@ -14408,7 +14408,7 @@
         <v>5</v>
       </c>
       <c r="F821" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="822" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14422,10 +14422,10 @@
         <v>2</v>
       </c>
       <c r="C823" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D823" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
     </row>
     <row r="824" spans="1:9" x14ac:dyDescent="0.3">
@@ -14459,7 +14459,7 @@
         <v>15</v>
       </c>
       <c r="F825" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H825">
         <v>104</v>
@@ -14513,7 +14513,7 @@
         <v>5</v>
       </c>
       <c r="F828" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I828" t="b">
         <v>1</v>
@@ -14524,7 +14524,7 @@
         <v>6</v>
       </c>
       <c r="B829" s="7" t="s">
-        <v>404</v>
+        <v>706</v>
       </c>
       <c r="C829" t="s">
         <v>3</v>
@@ -14538,7 +14538,7 @@
         <v>7</v>
       </c>
       <c r="B830" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C830" t="s">
         <v>5</v>
@@ -14549,7 +14549,7 @@
         <v>8</v>
       </c>
       <c r="B831" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C831" t="s">
         <v>5</v>
@@ -14560,7 +14560,7 @@
         <v>9</v>
       </c>
       <c r="B832" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C832" t="s">
         <v>3</v>
@@ -14574,7 +14574,7 @@
         <v>10</v>
       </c>
       <c r="B833" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C833" t="s">
         <v>5</v>
@@ -14588,7 +14588,7 @@
         <v>11</v>
       </c>
       <c r="B834" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C834" t="s">
         <v>3</v>
@@ -14602,7 +14602,7 @@
         <v>12</v>
       </c>
       <c r="B835" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C835" t="s">
         <v>3</v>
@@ -14616,7 +14616,7 @@
         <v>13</v>
       </c>
       <c r="B836" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C836" t="s">
         <v>5</v>
@@ -14630,7 +14630,7 @@
         <v>14</v>
       </c>
       <c r="B837" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C837" t="s">
         <v>5</v>
@@ -14661,7 +14661,7 @@
         <v>5</v>
       </c>
       <c r="F839" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="840" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -14675,10 +14675,10 @@
         <v>2</v>
       </c>
       <c r="C841" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D841" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.3">
@@ -14712,7 +14712,7 @@
         <v>15</v>
       </c>
       <c r="F843" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H843">
         <v>105</v>
@@ -14766,7 +14766,7 @@
         <v>5</v>
       </c>
       <c r="F846" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I846" t="b">
         <v>1</v>
@@ -14791,7 +14791,7 @@
         <v>7</v>
       </c>
       <c r="B848" s="7" t="s">
-        <v>413</v>
+        <v>707</v>
       </c>
       <c r="C848" t="s">
         <v>3</v>
@@ -14805,7 +14805,7 @@
         <v>8</v>
       </c>
       <c r="B849" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C849" t="s">
         <v>3</v>
@@ -14819,7 +14819,7 @@
         <v>9</v>
       </c>
       <c r="B850" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C850" t="s">
         <v>3</v>
@@ -14833,7 +14833,7 @@
         <v>10</v>
       </c>
       <c r="B851" s="7" t="s">
-        <v>416</v>
+        <v>708</v>
       </c>
       <c r="C851" t="s">
         <v>3</v>
@@ -14847,7 +14847,7 @@
         <v>11</v>
       </c>
       <c r="B852" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="C852" t="s">
         <v>3</v>
@@ -14861,7 +14861,7 @@
         <v>12</v>
       </c>
       <c r="B853" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C853" t="s">
         <v>3</v>
@@ -14875,7 +14875,7 @@
         <v>13</v>
       </c>
       <c r="B854" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="C854" t="s">
         <v>3</v>
@@ -14889,7 +14889,7 @@
         <v>14</v>
       </c>
       <c r="B855" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C855" t="s">
         <v>3</v>
@@ -14903,7 +14903,7 @@
         <v>15</v>
       </c>
       <c r="B856" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C856" t="s">
         <v>3</v>
@@ -14917,7 +14917,7 @@
         <v>16</v>
       </c>
       <c r="B857" s="7" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="C857" t="s">
         <v>3</v>
@@ -14989,7 +14989,7 @@
         <v>22</v>
       </c>
       <c r="B863" s="7" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C863" t="s">
         <v>5</v>
@@ -15000,13 +15000,13 @@
         <v>23</v>
       </c>
       <c r="B864" s="7" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C864" t="s">
         <v>170</v>
       </c>
       <c r="D864" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="E864">
         <v>22</v>
@@ -15034,7 +15034,7 @@
         <v>5</v>
       </c>
       <c r="F866" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="867" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15051,7 +15051,7 @@
         <v>205</v>
       </c>
       <c r="D868" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
     </row>
     <row r="869" spans="1:11" x14ac:dyDescent="0.3">
@@ -15059,7 +15059,7 @@
         <v>1</v>
       </c>
       <c r="B869" s="7" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="C869" t="s">
         <v>5</v>
@@ -15079,7 +15079,7 @@
         <v>2</v>
       </c>
       <c r="B870" s="7" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="C870" t="s">
         <v>5</v>
@@ -15093,7 +15093,7 @@
         <v>3</v>
       </c>
       <c r="B871" s="7" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="C871" t="s">
         <v>3</v>
@@ -15107,7 +15107,7 @@
         <v>4</v>
       </c>
       <c r="B872" s="7" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C872" t="s">
         <v>3</v>
@@ -15135,7 +15135,7 @@
         <v>6</v>
       </c>
       <c r="B874" s="7" t="s">
-        <v>429</v>
+        <v>709</v>
       </c>
       <c r="C874" t="s">
         <v>3</v>
@@ -15163,7 +15163,7 @@
         <v>8</v>
       </c>
       <c r="B876" s="7" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C876" t="s">
         <v>26</v>
@@ -15174,7 +15174,7 @@
         <v>9</v>
       </c>
       <c r="B877" s="7" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C877" t="s">
         <v>5</v>
@@ -15185,7 +15185,7 @@
         <v>10</v>
       </c>
       <c r="B878" s="7" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C878" t="s">
         <v>26</v>
@@ -15196,7 +15196,7 @@
         <v>11</v>
       </c>
       <c r="B879" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C879" t="s">
         <v>5</v>
@@ -15207,7 +15207,7 @@
         <v>12</v>
       </c>
       <c r="B880" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C880" t="s">
         <v>3</v>
@@ -15221,7 +15221,7 @@
         <v>13</v>
       </c>
       <c r="B881" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C881" t="s">
         <v>3</v>
@@ -15235,7 +15235,7 @@
         <v>14</v>
       </c>
       <c r="B882" s="7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C882" t="s">
         <v>3</v>
@@ -15249,7 +15249,7 @@
         <v>15</v>
       </c>
       <c r="B883" s="7" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="C883" t="s">
         <v>3</v>
@@ -15263,7 +15263,7 @@
         <v>16</v>
       </c>
       <c r="B884" s="7" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C884" t="s">
         <v>3</v>
@@ -15277,7 +15277,7 @@
         <v>17</v>
       </c>
       <c r="B885" s="7" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C885" t="s">
         <v>3</v>
@@ -15291,7 +15291,7 @@
         <v>18</v>
       </c>
       <c r="B886" s="7" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C886" t="s">
         <v>3</v>
@@ -15305,7 +15305,7 @@
         <v>19</v>
       </c>
       <c r="B887" s="7" t="s">
-        <v>441</v>
+        <v>710</v>
       </c>
       <c r="C887" t="s">
         <v>3</v>
@@ -15325,10 +15325,10 @@
         <v>2</v>
       </c>
       <c r="C889" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D889" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.3">
@@ -15362,7 +15362,7 @@
         <v>15</v>
       </c>
       <c r="F891" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H891">
         <v>106</v>
@@ -15416,7 +15416,7 @@
         <v>5</v>
       </c>
       <c r="F894" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I894" t="b">
         <v>1</v>
@@ -15441,7 +15441,7 @@
         <v>7</v>
       </c>
       <c r="B896" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C896" t="s">
         <v>3</v>
@@ -15455,7 +15455,7 @@
         <v>8</v>
       </c>
       <c r="B897" s="7" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C897" t="s">
         <v>3</v>
@@ -15469,7 +15469,7 @@
         <v>9</v>
       </c>
       <c r="B898" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C898" t="s">
         <v>3</v>
@@ -15483,7 +15483,7 @@
         <v>10</v>
       </c>
       <c r="B899" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C899" t="s">
         <v>3</v>
@@ -15497,7 +15497,7 @@
         <v>11</v>
       </c>
       <c r="B900" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C900" t="s">
         <v>3</v>
@@ -15511,7 +15511,7 @@
         <v>12</v>
       </c>
       <c r="B901" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C901" t="s">
         <v>3</v>
@@ -15525,7 +15525,7 @@
         <v>13</v>
       </c>
       <c r="B902" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C902" t="s">
         <v>3</v>
@@ -15539,7 +15539,7 @@
         <v>14</v>
       </c>
       <c r="B903" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C903" t="s">
         <v>3</v>
@@ -15553,7 +15553,7 @@
         <v>15</v>
       </c>
       <c r="B904" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C904" t="s">
         <v>5</v>
@@ -15567,7 +15567,7 @@
         <v>16</v>
       </c>
       <c r="B905" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C905" t="s">
         <v>3</v>
@@ -15581,7 +15581,7 @@
         <v>17</v>
       </c>
       <c r="B906" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C906" t="s">
         <v>3</v>
@@ -15595,7 +15595,7 @@
         <v>18</v>
       </c>
       <c r="B907" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="C907" t="s">
         <v>3</v>
@@ -15609,7 +15609,7 @@
         <v>19</v>
       </c>
       <c r="B908" s="7" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C908" t="s">
         <v>3</v>
@@ -15623,7 +15623,7 @@
         <v>20</v>
       </c>
       <c r="B909" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C909" t="s">
         <v>3</v>
@@ -15654,7 +15654,7 @@
         <v>5</v>
       </c>
       <c r="F911" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="912" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -15668,10 +15668,10 @@
         <v>2</v>
       </c>
       <c r="C913" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D913" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
     </row>
     <row r="914" spans="1:9" x14ac:dyDescent="0.3">
@@ -15705,7 +15705,7 @@
         <v>15</v>
       </c>
       <c r="F915" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H915">
         <v>107</v>
@@ -15759,7 +15759,7 @@
         <v>5</v>
       </c>
       <c r="F918" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I918" t="b">
         <v>1</v>
@@ -15770,7 +15770,7 @@
         <v>6</v>
       </c>
       <c r="B919" s="7" t="s">
-        <v>413</v>
+        <v>707</v>
       </c>
       <c r="C919" t="s">
         <v>3</v>
@@ -15784,7 +15784,7 @@
         <v>7</v>
       </c>
       <c r="B920" s="7" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C920" t="s">
         <v>5</v>
@@ -15809,7 +15809,7 @@
         <v>9</v>
       </c>
       <c r="B922" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C922" t="s">
         <v>3</v>
@@ -15823,7 +15823,7 @@
         <v>10</v>
       </c>
       <c r="B923" s="7" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C923" t="s">
         <v>5</v>
@@ -15837,7 +15837,7 @@
         <v>11</v>
       </c>
       <c r="B924" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C924" t="s">
         <v>3</v>
@@ -15851,7 +15851,7 @@
         <v>12</v>
       </c>
       <c r="B925" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C925" t="s">
         <v>3</v>
@@ -15865,7 +15865,7 @@
         <v>13</v>
       </c>
       <c r="B926" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C926" t="s">
         <v>3</v>
@@ -15879,7 +15879,7 @@
         <v>14</v>
       </c>
       <c r="B927" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C927" t="s">
         <v>3</v>
@@ -15893,7 +15893,7 @@
         <v>15</v>
       </c>
       <c r="B928" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C928" t="s">
         <v>3</v>
@@ -15907,7 +15907,7 @@
         <v>16</v>
       </c>
       <c r="B929" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C929" t="s">
         <v>3</v>
@@ -15921,7 +15921,7 @@
         <v>17</v>
       </c>
       <c r="B930" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C930" t="s">
         <v>5</v>
@@ -15935,7 +15935,7 @@
         <v>18</v>
       </c>
       <c r="B931" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C931" t="s">
         <v>3</v>
@@ -15949,7 +15949,7 @@
         <v>19</v>
       </c>
       <c r="B932" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C932" t="s">
         <v>3</v>
@@ -15963,7 +15963,7 @@
         <v>20</v>
       </c>
       <c r="B933" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="C933" t="s">
         <v>3</v>
@@ -15977,7 +15977,7 @@
         <v>21</v>
       </c>
       <c r="B934" s="7" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C934" t="s">
         <v>3</v>
@@ -15991,7 +15991,7 @@
         <v>22</v>
       </c>
       <c r="B935" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C935" t="s">
         <v>3</v>
@@ -16005,7 +16005,7 @@
         <v>23</v>
       </c>
       <c r="B936" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C936" t="s">
         <v>3</v>
@@ -16019,7 +16019,7 @@
         <v>24</v>
       </c>
       <c r="B937" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C937" t="s">
         <v>3</v>
@@ -16033,7 +16033,7 @@
         <v>25</v>
       </c>
       <c r="B938" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C938" t="s">
         <v>3</v>
@@ -16047,7 +16047,7 @@
         <v>26</v>
       </c>
       <c r="B939" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C939" t="s">
         <v>3</v>
@@ -16061,7 +16061,7 @@
         <v>27</v>
       </c>
       <c r="B940" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C940" t="s">
         <v>3</v>
@@ -16075,7 +16075,7 @@
         <v>28</v>
       </c>
       <c r="B941" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C941" t="s">
         <v>3</v>
@@ -16089,7 +16089,7 @@
         <v>29</v>
       </c>
       <c r="B942" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C942" t="s">
         <v>3</v>
@@ -16103,7 +16103,7 @@
         <v>30</v>
       </c>
       <c r="B943" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C943" t="s">
         <v>3</v>
@@ -16117,7 +16117,7 @@
         <v>31</v>
       </c>
       <c r="B944" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="C944" t="s">
         <v>3</v>
@@ -16131,7 +16131,7 @@
         <v>32</v>
       </c>
       <c r="B945" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C945" t="s">
         <v>3</v>
@@ -16145,13 +16145,13 @@
         <v>33</v>
       </c>
       <c r="B946" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C946" t="s">
         <v>170</v>
       </c>
       <c r="D946" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="E946" t="s">
         <v>193</v>
@@ -16182,7 +16182,7 @@
         <v>5</v>
       </c>
       <c r="F948" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="949" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16199,7 +16199,7 @@
         <v>205</v>
       </c>
       <c r="D950" s="7" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
     </row>
     <row r="951" spans="1:13" x14ac:dyDescent="0.3">
@@ -16207,7 +16207,7 @@
         <v>1</v>
       </c>
       <c r="B951" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C951" t="s">
         <v>3</v>
@@ -16221,7 +16221,7 @@
         <v>2</v>
       </c>
       <c r="B952" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C952" t="s">
         <v>3</v>
@@ -16235,7 +16235,7 @@
         <v>3</v>
       </c>
       <c r="B953" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C953" t="s">
         <v>3</v>
@@ -16249,7 +16249,7 @@
         <v>4</v>
       </c>
       <c r="B954" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="C954" t="s">
         <v>3</v>
@@ -16263,7 +16263,7 @@
         <v>5</v>
       </c>
       <c r="B955" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="C955" t="s">
         <v>3</v>
@@ -16277,7 +16277,7 @@
         <v>6</v>
       </c>
       <c r="B956" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="C956" t="s">
         <v>3</v>
@@ -16291,7 +16291,7 @@
         <v>7</v>
       </c>
       <c r="B957" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C957" t="s">
         <v>3</v>
@@ -16305,7 +16305,7 @@
         <v>8</v>
       </c>
       <c r="B958" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C958" t="s">
         <v>3</v>
@@ -16319,7 +16319,7 @@
         <v>9</v>
       </c>
       <c r="B959" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C959" t="s">
         <v>3</v>
@@ -16333,7 +16333,7 @@
         <v>10</v>
       </c>
       <c r="B960" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C960" t="s">
         <v>3</v>
@@ -16347,7 +16347,7 @@
         <v>11</v>
       </c>
       <c r="B961" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="C961" t="s">
         <v>3</v>
@@ -16361,7 +16361,7 @@
         <v>12</v>
       </c>
       <c r="B962" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C962" t="s">
         <v>3</v>
@@ -16375,7 +16375,7 @@
         <v>13</v>
       </c>
       <c r="B963" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C963" t="s">
         <v>5</v>
@@ -16389,7 +16389,7 @@
         <v>14</v>
       </c>
       <c r="B964" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C964" t="s">
         <v>5</v>
@@ -16403,7 +16403,7 @@
         <v>15</v>
       </c>
       <c r="B965" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="C965" t="s">
         <v>5</v>
@@ -16414,7 +16414,7 @@
         <v>16</v>
       </c>
       <c r="B966" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="C966" t="s">
         <v>5</v>
@@ -16425,7 +16425,7 @@
         <v>17</v>
       </c>
       <c r="B967" s="7" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="C967" t="s">
         <v>3</v>
@@ -16439,7 +16439,7 @@
         <v>18</v>
       </c>
       <c r="B968" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C968" t="s">
         <v>5</v>
@@ -16453,7 +16453,7 @@
         <v>19</v>
       </c>
       <c r="B969" s="7" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="C969" t="s">
         <v>5</v>
@@ -16473,10 +16473,10 @@
         <v>2</v>
       </c>
       <c r="C971" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D971" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
     </row>
     <row r="972" spans="1:9" x14ac:dyDescent="0.3">
@@ -16510,7 +16510,7 @@
         <v>15</v>
       </c>
       <c r="F973" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H973">
         <v>108</v>
@@ -16564,7 +16564,7 @@
         <v>5</v>
       </c>
       <c r="F976" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I976" t="b">
         <v>1</v>
@@ -16575,13 +16575,13 @@
         <v>6</v>
       </c>
       <c r="B977" s="7" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="C977" t="s">
         <v>170</v>
       </c>
       <c r="D977" s="13" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
     </row>
     <row r="978" spans="1:13" x14ac:dyDescent="0.3">
@@ -16606,7 +16606,7 @@
         <v>5</v>
       </c>
       <c r="F979" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="980" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16623,7 +16623,7 @@
         <v>205</v>
       </c>
       <c r="D981" s="13" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="M981" s="7"/>
     </row>
@@ -16632,13 +16632,13 @@
         <v>1</v>
       </c>
       <c r="B982" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C982" t="s">
         <v>5</v>
       </c>
       <c r="D982" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
     </row>
     <row r="983" spans="1:13" x14ac:dyDescent="0.3">
@@ -16646,10 +16646,10 @@
         <v>2</v>
       </c>
       <c r="B983" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C983" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
     </row>
     <row r="984" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -16666,10 +16666,10 @@
         <v>205</v>
       </c>
       <c r="D985" s="13" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="M985" s="13" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
     </row>
     <row r="986" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -16677,13 +16677,13 @@
         <v>1</v>
       </c>
       <c r="B986" s="14" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="C986" s="13" t="s">
         <v>5</v>
       </c>
       <c r="M986" s="13" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
     </row>
     <row r="987" spans="1:13" x14ac:dyDescent="0.3">
@@ -16705,7 +16705,7 @@
         <v>3</v>
       </c>
       <c r="B988" s="7" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C988" t="s">
         <v>3</v>
@@ -16719,7 +16719,7 @@
         <v>4</v>
       </c>
       <c r="B989" s="9" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C989" s="3" t="s">
         <v>5</v>
@@ -16739,7 +16739,7 @@
         <v>5</v>
       </c>
       <c r="B990" s="7" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C990" t="s">
         <v>5</v>
@@ -16750,7 +16750,7 @@
         <v>6</v>
       </c>
       <c r="B991" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C991" t="s">
         <v>5</v>
@@ -16761,7 +16761,7 @@
         <v>7</v>
       </c>
       <c r="B992" s="9" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C992" s="3" t="s">
         <v>5</v>
@@ -16778,7 +16778,7 @@
         <v>8</v>
       </c>
       <c r="B993" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C993" t="s">
         <v>5</v>
@@ -16798,7 +16798,7 @@
         <v>9</v>
       </c>
       <c r="B994" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="C994" t="s">
         <v>5</v>
@@ -16809,7 +16809,7 @@
         <v>10</v>
       </c>
       <c r="B995" s="7" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C995" t="s">
         <v>5</v>
@@ -16820,7 +16820,7 @@
         <v>11</v>
       </c>
       <c r="B996" s="7" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C996" s="11" t="s">
         <v>5</v>
@@ -16841,7 +16841,7 @@
         <v>12</v>
       </c>
       <c r="B997" s="7" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C997" t="s">
         <v>5</v>
@@ -16861,7 +16861,7 @@
         <v>13</v>
       </c>
       <c r="B998" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C998" t="s">
         <v>5</v>
@@ -16872,7 +16872,7 @@
         <v>14</v>
       </c>
       <c r="B999" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C999" t="s">
         <v>5</v>
@@ -16883,7 +16883,7 @@
         <v>15</v>
       </c>
       <c r="B1000" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C1000" s="11" t="s">
         <v>5</v>
@@ -16904,7 +16904,7 @@
         <v>16</v>
       </c>
       <c r="B1001" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C1001" t="s">
         <v>5</v>
@@ -16924,7 +16924,7 @@
         <v>17</v>
       </c>
       <c r="B1002" s="7" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C1002" t="s">
         <v>5</v>
@@ -16935,7 +16935,7 @@
         <v>18</v>
       </c>
       <c r="B1003" s="7" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C1003" t="s">
         <v>5</v>
@@ -16946,7 +16946,7 @@
         <v>19</v>
       </c>
       <c r="B1004" s="7" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C1004" s="11" t="s">
         <v>5</v>
@@ -16967,7 +16967,7 @@
         <v>20</v>
       </c>
       <c r="B1005" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="C1005" t="s">
         <v>5</v>
@@ -16996,10 +16996,10 @@
         <v>205</v>
       </c>
       <c r="D1007" s="13" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="M1007" s="13" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1008" spans="1:13" x14ac:dyDescent="0.3">
@@ -17044,7 +17044,7 @@
         <v>3</v>
       </c>
       <c r="B1010" s="7" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C1010" t="s">
         <v>3</v>
@@ -17058,7 +17058,7 @@
         <v>4</v>
       </c>
       <c r="B1011" s="7" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C1011" t="s">
         <v>5</v>
@@ -17087,10 +17087,10 @@
         <v>205</v>
       </c>
       <c r="D1013" s="13" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="M1013" s="13" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1014" spans="1:13" x14ac:dyDescent="0.3">
@@ -17098,7 +17098,7 @@
         <v>1</v>
       </c>
       <c r="B1014" s="7" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="C1014" t="s">
         <v>5</v>
@@ -17110,7 +17110,7 @@
         <v>2</v>
       </c>
       <c r="B1015" s="7" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C1015" t="s">
         <v>5</v>
@@ -17121,7 +17121,7 @@
         <v>3</v>
       </c>
       <c r="B1016" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C1016" t="s">
         <v>5</v>
@@ -17132,7 +17132,7 @@
         <v>4</v>
       </c>
       <c r="B1017" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C1017" t="s">
         <v>5</v>
@@ -17143,7 +17143,7 @@
         <v>5</v>
       </c>
       <c r="B1018" s="7" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C1018" t="s">
         <v>5</v>
@@ -17154,7 +17154,7 @@
         <v>6</v>
       </c>
       <c r="B1019" s="7" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C1019" t="s">
         <v>5</v>
@@ -17165,7 +17165,7 @@
         <v>7</v>
       </c>
       <c r="B1020" s="7" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="C1020" t="s">
         <v>5</v>
@@ -17176,7 +17176,7 @@
         <v>8</v>
       </c>
       <c r="B1021" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C1021" t="s">
         <v>5</v>
@@ -17187,7 +17187,7 @@
         <v>9</v>
       </c>
       <c r="B1022" s="7" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="C1022" t="s">
         <v>5</v>
@@ -17198,7 +17198,7 @@
         <v>10</v>
       </c>
       <c r="B1023" s="7" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="C1023" t="s">
         <v>5</v>
@@ -17209,7 +17209,7 @@
         <v>11</v>
       </c>
       <c r="B1024" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="C1024" t="s">
         <v>5</v>
@@ -17220,7 +17220,7 @@
         <v>12</v>
       </c>
       <c r="B1025" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C1025" t="s">
         <v>5</v>
@@ -17231,7 +17231,7 @@
         <v>13</v>
       </c>
       <c r="B1026" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C1026" t="s">
         <v>5</v>
@@ -17242,7 +17242,7 @@
         <v>14</v>
       </c>
       <c r="B1027" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C1027" t="s">
         <v>5</v>
@@ -17253,7 +17253,7 @@
         <v>15</v>
       </c>
       <c r="B1028" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="C1028" t="s">
         <v>5</v>
@@ -17273,10 +17273,10 @@
         <v>205</v>
       </c>
       <c r="D1030" s="13" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="M1030" s="13" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1031" spans="1:13" x14ac:dyDescent="0.3">
@@ -17284,7 +17284,7 @@
         <v>1</v>
       </c>
       <c r="B1031" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C1031" t="s">
         <v>3</v>
@@ -17299,7 +17299,7 @@
         <v>2</v>
       </c>
       <c r="B1032" s="7" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="C1032" t="s">
         <v>3</v>
@@ -17313,7 +17313,7 @@
         <v>3</v>
       </c>
       <c r="B1033" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="C1033" t="s">
         <v>3</v>
@@ -17327,7 +17327,7 @@
         <v>4</v>
       </c>
       <c r="B1034" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C1034" t="s">
         <v>3</v>
@@ -17341,7 +17341,7 @@
         <v>5</v>
       </c>
       <c r="B1035" s="7" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="C1035" t="s">
         <v>3</v>
@@ -17355,7 +17355,7 @@
         <v>6</v>
       </c>
       <c r="B1036" s="7" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C1036" t="s">
         <v>3</v>
@@ -17369,7 +17369,7 @@
         <v>7</v>
       </c>
       <c r="B1037" s="7" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="C1037" t="s">
         <v>3</v>
@@ -17383,7 +17383,7 @@
         <v>8</v>
       </c>
       <c r="B1038" s="7" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="C1038" t="s">
         <v>3</v>
@@ -17397,7 +17397,7 @@
         <v>9</v>
       </c>
       <c r="B1039" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C1039" t="s">
         <v>3</v>
@@ -17411,7 +17411,7 @@
         <v>10</v>
       </c>
       <c r="B1040" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="C1040" t="s">
         <v>3</v>
@@ -17425,7 +17425,7 @@
         <v>11</v>
       </c>
       <c r="B1041" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="C1041" t="s">
         <v>5</v>
@@ -17439,7 +17439,7 @@
         <v>12</v>
       </c>
       <c r="B1042" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="C1042" t="s">
         <v>5</v>
@@ -17453,7 +17453,7 @@
         <v>13</v>
       </c>
       <c r="B1043" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="C1043" t="s">
         <v>5</v>
@@ -17467,7 +17467,7 @@
         <v>14</v>
       </c>
       <c r="B1044" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C1044" t="s">
         <v>5</v>
@@ -17481,7 +17481,7 @@
         <v>15</v>
       </c>
       <c r="B1045" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="C1045" t="s">
         <v>5</v>
@@ -17495,7 +17495,7 @@
         <v>16</v>
       </c>
       <c r="B1046" s="7" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="C1046" t="s">
         <v>5</v>
@@ -17509,7 +17509,7 @@
         <v>17</v>
       </c>
       <c r="B1047" s="7" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C1047" t="s">
         <v>5</v>
@@ -17523,7 +17523,7 @@
         <v>18</v>
       </c>
       <c r="B1048" s="7" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="C1048" t="s">
         <v>5</v>
@@ -17537,7 +17537,7 @@
         <v>19</v>
       </c>
       <c r="B1049" s="7" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C1049" t="s">
         <v>5</v>
@@ -17551,7 +17551,7 @@
         <v>20</v>
       </c>
       <c r="B1050" s="7" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="C1050" t="s">
         <v>5</v>
@@ -17571,10 +17571,10 @@
         <v>2</v>
       </c>
       <c r="C1052" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D1052" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.3">
@@ -17608,7 +17608,7 @@
         <v>15</v>
       </c>
       <c r="F1054" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H1054">
         <v>150</v>
@@ -17662,7 +17662,7 @@
         <v>5</v>
       </c>
       <c r="F1057" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I1057" t="b">
         <v>1</v>
@@ -17690,7 +17690,7 @@
         <v>5</v>
       </c>
       <c r="F1059" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1060" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17704,10 +17704,10 @@
         <v>2</v>
       </c>
       <c r="C1061" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D1061" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1062" spans="1:13" x14ac:dyDescent="0.3">
@@ -17741,7 +17741,7 @@
         <v>15</v>
       </c>
       <c r="F1063" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H1063">
         <v>151</v>
@@ -17795,7 +17795,7 @@
         <v>5</v>
       </c>
       <c r="F1066" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I1066" t="b">
         <v>1</v>
@@ -17806,7 +17806,7 @@
         <v>6</v>
       </c>
       <c r="B1067" s="7" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C1067" t="s">
         <v>3</v>
@@ -17820,7 +17820,7 @@
         <v>7</v>
       </c>
       <c r="B1068" s="9" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C1068" s="3" t="s">
         <v>5</v>
@@ -17834,13 +17834,13 @@
         <v>8</v>
       </c>
       <c r="B1069" s="7" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="C1069" t="s">
         <v>170</v>
       </c>
       <c r="D1069" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="E1069">
         <v>7</v>
@@ -17868,7 +17868,7 @@
         <v>5</v>
       </c>
       <c r="F1071" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1072" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -17885,7 +17885,7 @@
         <v>205</v>
       </c>
       <c r="D1073" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1074" spans="1:13" x14ac:dyDescent="0.3">
@@ -17893,7 +17893,7 @@
         <v>1</v>
       </c>
       <c r="B1074" s="7" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="C1074" t="s">
         <v>3</v>
@@ -17908,7 +17908,7 @@
         <v>2</v>
       </c>
       <c r="B1075" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C1075" t="s">
         <v>5</v>
@@ -17922,7 +17922,7 @@
         <v>3</v>
       </c>
       <c r="B1076" s="7" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="C1076" t="s">
         <v>5</v>
@@ -17942,10 +17942,10 @@
         <v>2</v>
       </c>
       <c r="C1078" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D1078" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1079" spans="1:13" x14ac:dyDescent="0.3">
@@ -17979,7 +17979,7 @@
         <v>15</v>
       </c>
       <c r="F1080" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H1080">
         <v>152</v>
@@ -18033,7 +18033,7 @@
         <v>5</v>
       </c>
       <c r="F1083" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I1083" t="b">
         <v>1</v>
@@ -18044,7 +18044,7 @@
         <v>6</v>
       </c>
       <c r="B1084" s="7" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C1084" t="s">
         <v>3</v>
@@ -18058,7 +18058,7 @@
         <v>7</v>
       </c>
       <c r="B1085" s="7" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C1085" t="s">
         <v>3</v>
@@ -18072,7 +18072,7 @@
         <v>8</v>
       </c>
       <c r="B1086" s="7" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C1086" t="s">
         <v>5</v>
@@ -18086,7 +18086,7 @@
         <v>9</v>
       </c>
       <c r="B1087" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="C1087" t="s">
         <v>5</v>
@@ -18100,7 +18100,7 @@
         <v>10</v>
       </c>
       <c r="B1088" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C1088" t="s">
         <v>3</v>
@@ -18114,7 +18114,7 @@
         <v>11</v>
       </c>
       <c r="B1089" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="C1089" t="s">
         <v>3</v>
@@ -18128,7 +18128,7 @@
         <v>12</v>
       </c>
       <c r="B1090" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C1090" t="s">
         <v>5</v>
@@ -18142,7 +18142,7 @@
         <v>13</v>
       </c>
       <c r="B1091" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="C1091" t="s">
         <v>5</v>
@@ -18173,7 +18173,7 @@
         <v>5</v>
       </c>
       <c r="F1093" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1094" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -18187,10 +18187,10 @@
         <v>2</v>
       </c>
       <c r="C1095" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D1095" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
     </row>
     <row r="1096" spans="1:9" x14ac:dyDescent="0.3">
@@ -18224,7 +18224,7 @@
         <v>15</v>
       </c>
       <c r="F1097" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H1097">
         <v>153</v>
@@ -18278,7 +18278,7 @@
         <v>5</v>
       </c>
       <c r="F1100" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I1100" t="b">
         <v>1</v>
@@ -18303,7 +18303,7 @@
         <v>7</v>
       </c>
       <c r="B1102" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="C1102" t="s">
         <v>3</v>
@@ -18317,7 +18317,7 @@
         <v>8</v>
       </c>
       <c r="B1103" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C1103" t="s">
         <v>3</v>
@@ -18331,7 +18331,7 @@
         <v>9</v>
       </c>
       <c r="B1104" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="C1104" t="s">
         <v>3</v>
@@ -18345,7 +18345,7 @@
         <v>10</v>
       </c>
       <c r="B1105" s="7" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="C1105" t="s">
         <v>3</v>
@@ -18359,7 +18359,7 @@
         <v>11</v>
       </c>
       <c r="B1106" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C1106" t="s">
         <v>5</v>
@@ -18373,7 +18373,7 @@
         <v>12</v>
       </c>
       <c r="B1107" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C1107" t="s">
         <v>5</v>
@@ -18387,7 +18387,7 @@
         <v>13</v>
       </c>
       <c r="B1108" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="C1108" t="s">
         <v>5</v>
@@ -18398,7 +18398,7 @@
         <v>14</v>
       </c>
       <c r="B1109" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="C1109" t="s">
         <v>5</v>
@@ -18409,7 +18409,7 @@
         <v>15</v>
       </c>
       <c r="B1110" s="7" t="s">
-        <v>551</v>
+        <v>695</v>
       </c>
       <c r="C1110" t="s">
         <v>3</v>
@@ -18423,7 +18423,7 @@
         <v>16</v>
       </c>
       <c r="B1111" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="C1111" t="s">
         <v>3</v>
@@ -18437,7 +18437,7 @@
         <v>17</v>
       </c>
       <c r="B1112" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="C1112" t="s">
         <v>3</v>
@@ -18451,7 +18451,7 @@
         <v>18</v>
       </c>
       <c r="B1113" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="C1113" t="s">
         <v>3</v>
@@ -18465,7 +18465,7 @@
         <v>19</v>
       </c>
       <c r="B1114" s="7" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C1114" t="s">
         <v>3</v>
@@ -18507,7 +18507,7 @@
         <v>22</v>
       </c>
       <c r="B1117" s="7" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C1117" t="s">
         <v>5</v>
@@ -18521,7 +18521,7 @@
         <v>23</v>
       </c>
       <c r="B1118" s="7" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C1118" t="s">
         <v>5</v>
@@ -18552,7 +18552,7 @@
         <v>5</v>
       </c>
       <c r="F1120" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1121" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -18566,10 +18566,10 @@
         <v>2</v>
       </c>
       <c r="C1122" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D1122" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1123" spans="1:9" x14ac:dyDescent="0.3">
@@ -18603,7 +18603,7 @@
         <v>15</v>
       </c>
       <c r="F1124" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H1124">
         <v>154</v>
@@ -18657,7 +18657,7 @@
         <v>5</v>
       </c>
       <c r="F1127" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I1127" t="b">
         <v>1</v>
@@ -18668,7 +18668,7 @@
         <v>6</v>
       </c>
       <c r="B1128" s="7" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C1128" t="s">
         <v>5</v>
@@ -18682,7 +18682,7 @@
         <v>7</v>
       </c>
       <c r="B1129" s="7" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C1129" t="s">
         <v>5</v>
@@ -18696,7 +18696,7 @@
         <v>8</v>
       </c>
       <c r="B1130" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C1130" t="s">
         <v>5</v>
@@ -18710,7 +18710,7 @@
         <v>9</v>
       </c>
       <c r="B1131" s="7" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C1131" t="s">
         <v>5</v>
@@ -18724,7 +18724,7 @@
         <v>10</v>
       </c>
       <c r="B1132" s="7" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C1132" t="s">
         <v>5</v>
@@ -18738,7 +18738,7 @@
         <v>11</v>
       </c>
       <c r="B1133" s="7" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="C1133" t="s">
         <v>5</v>
@@ -18752,7 +18752,7 @@
         <v>12</v>
       </c>
       <c r="B1134" s="7" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C1134" t="s">
         <v>5</v>
@@ -18766,7 +18766,7 @@
         <v>13</v>
       </c>
       <c r="B1135" s="7" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="C1135" t="s">
         <v>5</v>
@@ -18780,7 +18780,7 @@
         <v>14</v>
       </c>
       <c r="B1136" s="7" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="C1136" t="s">
         <v>5</v>
@@ -18794,7 +18794,7 @@
         <v>15</v>
       </c>
       <c r="B1137" s="7" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="C1137" t="s">
         <v>5</v>
@@ -18808,7 +18808,7 @@
         <v>16</v>
       </c>
       <c r="B1138" s="7" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C1138" t="s">
         <v>5</v>
@@ -18822,7 +18822,7 @@
         <v>17</v>
       </c>
       <c r="B1139" s="7" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="C1139" t="s">
         <v>5</v>
@@ -18836,7 +18836,7 @@
         <v>18</v>
       </c>
       <c r="B1140" s="7" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="C1140" t="s">
         <v>5</v>
@@ -18850,7 +18850,7 @@
         <v>19</v>
       </c>
       <c r="B1141" s="7" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C1141" t="s">
         <v>5</v>
@@ -18864,7 +18864,7 @@
         <v>20</v>
       </c>
       <c r="B1142" s="7" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="C1142" t="s">
         <v>5</v>
@@ -18878,7 +18878,7 @@
         <v>21</v>
       </c>
       <c r="B1143" s="7" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C1143" t="s">
         <v>5</v>
@@ -18909,7 +18909,7 @@
         <v>5</v>
       </c>
       <c r="F1145" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1146" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -18923,10 +18923,10 @@
         <v>2</v>
       </c>
       <c r="C1147" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D1147" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
     </row>
     <row r="1148" spans="1:9" x14ac:dyDescent="0.3">
@@ -18960,7 +18960,7 @@
         <v>15</v>
       </c>
       <c r="F1149" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H1149">
         <v>155</v>
@@ -19014,7 +19014,7 @@
         <v>5</v>
       </c>
       <c r="F1152" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I1152" t="b">
         <v>1</v>
@@ -19042,7 +19042,7 @@
         <v>5</v>
       </c>
       <c r="F1154" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1155" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -19056,10 +19056,10 @@
         <v>2</v>
       </c>
       <c r="C1156" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D1156" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
     </row>
     <row r="1157" spans="1:9" x14ac:dyDescent="0.3">
@@ -19093,7 +19093,7 @@
         <v>15</v>
       </c>
       <c r="F1158" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H1158">
         <v>156</v>
@@ -19147,7 +19147,7 @@
         <v>5</v>
       </c>
       <c r="F1161" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I1161" t="b">
         <v>1</v>
@@ -19158,7 +19158,7 @@
         <v>6</v>
       </c>
       <c r="B1162" s="7" t="s">
-        <v>574</v>
+        <v>711</v>
       </c>
       <c r="C1162" t="s">
         <v>5</v>
@@ -19169,7 +19169,7 @@
         <v>7</v>
       </c>
       <c r="B1163" s="7" t="s">
-        <v>575</v>
+        <v>712</v>
       </c>
       <c r="C1163" t="s">
         <v>5</v>
@@ -19197,7 +19197,7 @@
         <v>5</v>
       </c>
       <c r="F1165" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1166" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -19214,7 +19214,7 @@
         <v>205</v>
       </c>
       <c r="D1167" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1168" spans="1:9" x14ac:dyDescent="0.3">
@@ -19222,7 +19222,7 @@
         <v>1</v>
       </c>
       <c r="B1168" s="7" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C1168" s="12" t="s">
         <v>5</v>
@@ -19233,7 +19233,7 @@
         <v>2</v>
       </c>
       <c r="B1169" s="7" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="C1169" s="12" t="s">
         <v>5</v>
@@ -19244,7 +19244,7 @@
         <v>3</v>
       </c>
       <c r="B1170" s="7" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="C1170" s="12" t="s">
         <v>5</v>
@@ -19255,7 +19255,7 @@
         <v>4</v>
       </c>
       <c r="B1171" s="7" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="C1171" s="12" t="s">
         <v>5</v>
@@ -19275,7 +19275,7 @@
         <v>205</v>
       </c>
       <c r="D1173" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
     </row>
     <row r="1174" spans="1:17" x14ac:dyDescent="0.3">
@@ -19283,7 +19283,7 @@
         <v>1</v>
       </c>
       <c r="B1174" s="7" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C1174" s="12" t="s">
         <v>5</v>
@@ -19294,7 +19294,7 @@
         <v>2</v>
       </c>
       <c r="B1175" s="7" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="C1175" s="12" t="s">
         <v>5</v>
@@ -19311,10 +19311,10 @@
         <v>2</v>
       </c>
       <c r="C1177" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D1177" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1178" spans="1:17" x14ac:dyDescent="0.3">
@@ -19348,7 +19348,7 @@
         <v>15</v>
       </c>
       <c r="F1179" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H1179">
         <v>250</v>
@@ -19402,7 +19402,7 @@
         <v>5</v>
       </c>
       <c r="F1182" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I1182" t="b">
         <v>1</v>
@@ -19413,13 +19413,13 @@
         <v>6</v>
       </c>
       <c r="B1183" s="7" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="C1183" t="s">
         <v>170</v>
       </c>
       <c r="D1183" s="13" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="L1183" s="13"/>
       <c r="M1183" s="13" t="s">
@@ -19452,7 +19452,7 @@
         <v>5</v>
       </c>
       <c r="F1185" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1186" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -19469,7 +19469,7 @@
         <v>205</v>
       </c>
       <c r="D1187" s="13" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
     </row>
     <row r="1188" spans="1:13" x14ac:dyDescent="0.3">
@@ -19477,13 +19477,13 @@
         <v>1</v>
       </c>
       <c r="B1188" s="7" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="C1188" t="s">
         <v>5</v>
       </c>
       <c r="D1188" s="13" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1189" spans="1:13" x14ac:dyDescent="0.3">
@@ -19491,10 +19491,10 @@
         <v>2</v>
       </c>
       <c r="B1189" s="7" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="C1189" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="D1189" s="13"/>
     </row>
@@ -19512,10 +19512,10 @@
         <v>205</v>
       </c>
       <c r="D1191" s="13" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="M1191" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1192" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -19532,10 +19532,10 @@
         <v>205</v>
       </c>
       <c r="D1193" s="13" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="M1193" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1194" spans="1:13" x14ac:dyDescent="0.3">
@@ -19596,10 +19596,10 @@
         <v>205</v>
       </c>
       <c r="D1199" s="13" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="M1199" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1200" spans="1:13" x14ac:dyDescent="0.3">
@@ -19607,7 +19607,7 @@
         <v>1</v>
       </c>
       <c r="B1200" s="7" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="C1200" s="12" t="s">
         <v>5</v>
@@ -19618,7 +19618,7 @@
         <v>2</v>
       </c>
       <c r="B1201" s="7" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="C1201" s="12" t="s">
         <v>5</v>
@@ -19629,7 +19629,7 @@
         <v>3</v>
       </c>
       <c r="B1202" s="9" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="C1202" s="12" t="s">
         <v>5</v>
@@ -19649,7 +19649,7 @@
         <v>4</v>
       </c>
       <c r="B1203" s="7" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="C1203" s="12" t="s">
         <v>5</v>
@@ -19672,10 +19672,10 @@
         <v>205</v>
       </c>
       <c r="D1205" s="13" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="M1205" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1206" spans="1:13" x14ac:dyDescent="0.3">
@@ -19683,13 +19683,13 @@
         <v>1</v>
       </c>
       <c r="B1206" s="7" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="C1206" t="s">
         <v>170</v>
       </c>
       <c r="D1206" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1207" spans="1:13" x14ac:dyDescent="0.3">
@@ -19697,13 +19697,13 @@
         <v>2</v>
       </c>
       <c r="B1207" s="7" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="C1207" t="s">
         <v>170</v>
       </c>
       <c r="D1207" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1208" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -19717,10 +19717,10 @@
         <v>2</v>
       </c>
       <c r="C1209" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D1209" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
     </row>
     <row r="1210" spans="1:13" x14ac:dyDescent="0.3">
@@ -19754,7 +19754,7 @@
         <v>15</v>
       </c>
       <c r="F1211" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H1211">
         <v>200</v>
@@ -19808,7 +19808,7 @@
         <v>5</v>
       </c>
       <c r="F1214" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I1214" t="b">
         <v>1</v>
@@ -19819,7 +19819,7 @@
         <v>6</v>
       </c>
       <c r="B1215" s="7" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="C1215" t="s">
         <v>3</v>
@@ -19833,7 +19833,7 @@
         <v>7</v>
       </c>
       <c r="B1216" s="7" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="C1216" t="s">
         <v>3</v>
@@ -19847,7 +19847,7 @@
         <v>8</v>
       </c>
       <c r="B1217" s="7" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="C1217" t="s">
         <v>3</v>
@@ -19861,7 +19861,7 @@
         <v>9</v>
       </c>
       <c r="B1218" s="7" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="C1218" t="s">
         <v>3</v>
@@ -19892,7 +19892,7 @@
         <v>5</v>
       </c>
       <c r="F1220" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1221" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -19906,10 +19906,10 @@
         <v>2</v>
       </c>
       <c r="C1222" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D1222" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
     </row>
     <row r="1223" spans="1:9" x14ac:dyDescent="0.3">
@@ -19943,7 +19943,7 @@
         <v>15</v>
       </c>
       <c r="F1224" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="H1224">
         <v>201</v>
@@ -19997,7 +19997,7 @@
         <v>5</v>
       </c>
       <c r="F1227" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="I1227" t="b">
         <v>1</v>
@@ -20008,7 +20008,7 @@
         <v>6</v>
       </c>
       <c r="B1228" s="7" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="C1228" t="s">
         <v>5</v>
@@ -20019,13 +20019,13 @@
         <v>7</v>
       </c>
       <c r="B1229" s="7" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="C1229" t="s">
         <v>170</v>
       </c>
       <c r="D1229" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="E1229">
         <v>6</v>
@@ -20053,7 +20053,7 @@
         <v>5</v>
       </c>
       <c r="F1231" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
